--- a/visualizations/mean_all_info_cooling.xlsx
+++ b/visualizations/mean_all_info_cooling.xlsx
@@ -461,7 +461,7 @@
         <v>0.0002024</v>
       </c>
       <c r="D2" t="n">
-        <v>45.07864230711549</v>
+        <v>46.1460446071759</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>366.4076825499989</v>
       </c>
       <c r="D3" t="n">
-        <v>43.34922543423745</v>
+        <v>44.70092230282822</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1249.966295799999</v>
       </c>
       <c r="D4" t="n">
-        <v>42.31255307529499</v>
+        <v>43.60562404167081</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>2089.746297399998</v>
+        <v>2540.6646351</v>
       </c>
       <c r="D5" t="n">
-        <v>39.75777487433592</v>
+        <v>40.69548639989222</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>3185.921967299998</v>
+        <v>3636.840305</v>
       </c>
       <c r="D6" t="n">
-        <v>39.67743773824908</v>
+        <v>40.63331878544989</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>4148.669423749998</v>
       </c>
       <c r="D7" t="n">
-        <v>39.56453211703293</v>
+        <v>40.43371205890781</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>4369.508489899998</v>
       </c>
       <c r="D8" t="n">
-        <v>39.11678889114721</v>
+        <v>40.21739900729455</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>5061.674051699997</v>
+        <v>4464.082322199998</v>
       </c>
       <c r="D9" t="n">
-        <v>39.09987589306805</v>
+        <v>39.99621706789318</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>5785.136218799997</v>
+        <v>5187.544489299998</v>
       </c>
       <c r="D10" t="n">
-        <v>38.8765490120908</v>
+        <v>39.95645154108993</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>5864.449493149997</v>
       </c>
       <c r="D11" t="n">
-        <v>37.04919574024163</v>
+        <v>37.97338399293842</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>5917.630158449996</v>
       </c>
       <c r="D12" t="n">
-        <v>36.67367299490095</v>
+        <v>37.54280781855731</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>6009.652053349995</v>
       </c>
       <c r="D13" t="n">
-        <v>36.5642939982379</v>
+        <v>37.44656394901162</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>6125.256429899996</v>
       </c>
       <c r="D14" t="n">
-        <v>36.42649898563644</v>
+        <v>37.3077558354606</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>6247.607748199996</v>
       </c>
       <c r="D15" t="n">
-        <v>36.33395656639212</v>
+        <v>37.21437915524302</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>6373.062619549996</v>
       </c>
       <c r="D16" t="n">
-        <v>36.27870384106681</v>
+        <v>37.15542844304534</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>6499.089056049996</v>
       </c>
       <c r="D17" t="n">
-        <v>36.24546284468998</v>
+        <v>37.11934614254483</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>6708.740035149995</v>
       </c>
       <c r="D18" t="n">
-        <v>35.79880627938264</v>
+        <v>36.66309863629139</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>6859.681874299996</v>
       </c>
       <c r="D19" t="n">
-        <v>35.7277711437381</v>
+        <v>36.49575625453265</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>6889.258942249996</v>
       </c>
       <c r="D20" t="n">
-        <v>35.5090134090472</v>
+        <v>36.34877447108163</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>6970.287839949996</v>
       </c>
       <c r="D21" t="n">
-        <v>34.99494069062183</v>
+        <v>35.72856299714325</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>7085.878322499996</v>
       </c>
       <c r="D22" t="n">
-        <v>34.93844230911457</v>
+        <v>35.67272658981995</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>7203.895049899997</v>
       </c>
       <c r="D23" t="n">
-        <v>34.87692724126494</v>
+        <v>35.60669524639388</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>7398.520257249997</v>
       </c>
       <c r="D24" t="n">
-        <v>34.54037560545289</v>
+        <v>35.26169066012488</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>7597.034988449996</v>
       </c>
       <c r="D25" t="n">
-        <v>34.25993597742644</v>
+        <v>35.07117462007433</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>7662.417309999996</v>
       </c>
       <c r="D26" t="n">
-        <v>34.0476199523649</v>
+        <v>34.74001405997119</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>7717.949312349996</v>
       </c>
       <c r="D27" t="n">
-        <v>33.68479348955618</v>
+        <v>34.43613184920294</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>7772.332123199996</v>
       </c>
       <c r="D28" t="n">
-        <v>33.05314102103841</v>
+        <v>33.70858496901165</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>7797.218913449996</v>
       </c>
       <c r="D29" t="n">
-        <v>32.79660717205189</v>
+        <v>33.42002481967047</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>7832.233515299996</v>
       </c>
       <c r="D30" t="n">
-        <v>32.08416103005922</v>
+        <v>32.69548881453462</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>7847.376476799996</v>
       </c>
       <c r="D31" t="n">
-        <v>31.8078964891337</v>
+        <v>32.4188959062482</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>7856.210361399995</v>
       </c>
       <c r="D32" t="n">
-        <v>31.12791164316041</v>
+        <v>31.71881797656262</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>7874.934681449995</v>
       </c>
       <c r="D33" t="n">
-        <v>31.03337533303109</v>
+        <v>31.6429610745684</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>7909.767836749995</v>
       </c>
       <c r="D34" t="n">
-        <v>30.89060798297224</v>
+        <v>31.55231839269859</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>7974.042088299995</v>
       </c>
       <c r="D35" t="n">
-        <v>29.56410282393481</v>
+        <v>30.16848098526717</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/mean_all_info_cooling.xlsx
+++ b/visualizations/mean_all_info_cooling.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/visualizations/mean_all_info_cooling.xlsx
+++ b/visualizations/mean_all_info_cooling.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
         <v>0.0002024</v>
       </c>
       <c r="D2" t="n">
-        <v>45.07864230711549</v>
+        <v>44.98209944491276</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>366.4076825499989</v>
       </c>
       <c r="D3" t="n">
-        <v>43.34922543423745</v>
+        <v>43.23177109474848</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1249.966295799999</v>
       </c>
       <c r="D4" t="n">
-        <v>42.31255307529499</v>
+        <v>42.20033612662998</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>2089.746297399998</v>
       </c>
       <c r="D5" t="n">
-        <v>39.75777487433592</v>
+        <v>39.68632454660317</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>3185.921967299998</v>
       </c>
       <c r="D6" t="n">
-        <v>39.67743773824908</v>
+        <v>39.59172287699346</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>4148.669423749998</v>
       </c>
       <c r="D7" t="n">
-        <v>39.56453211703293</v>
+        <v>39.49360831645744</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>4369.508489899998</v>
+        <v>4998.396824699997</v>
       </c>
       <c r="D8" t="n">
-        <v>39.11678889114721</v>
+        <v>39.03002160725894</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>5061.674051699997</v>
+        <v>5690.562386499996</v>
       </c>
       <c r="D9" t="n">
-        <v>39.09987589306805</v>
+        <v>39.02191613901086</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>5785.136218799997</v>
       </c>
       <c r="D10" t="n">
-        <v>38.8765490120908</v>
+        <v>38.77999621590052</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>5864.449493149997</v>
       </c>
       <c r="D11" t="n">
-        <v>37.04919574024163</v>
+        <v>36.97088273755115</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>5917.630158449996</v>
       </c>
       <c r="D12" t="n">
-        <v>36.67367299490095</v>
+        <v>36.60118601249469</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>6009.652053349995</v>
       </c>
       <c r="D13" t="n">
-        <v>36.5642939982379</v>
+        <v>36.49067161382257</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>6125.256429899996</v>
       </c>
       <c r="D14" t="n">
-        <v>36.42649898563644</v>
+        <v>36.35293813771844</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>6247.607748199996</v>
       </c>
       <c r="D15" t="n">
-        <v>36.33395656639212</v>
+        <v>36.26045449350823</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>6373.062619549996</v>
       </c>
       <c r="D16" t="n">
-        <v>36.27870384106681</v>
+        <v>36.20555492265429</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>6499.089056049996</v>
       </c>
       <c r="D17" t="n">
-        <v>36.24546284468998</v>
+        <v>36.17255981092239</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>6708.740035149995</v>
       </c>
       <c r="D18" t="n">
-        <v>35.79880627938264</v>
+        <v>35.72661394203364</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>6859.681874299996</v>
       </c>
       <c r="D19" t="n">
-        <v>35.7277711437381</v>
+        <v>35.66493124210789</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>6889.258942249996</v>
       </c>
       <c r="D20" t="n">
-        <v>35.5090134090472</v>
+        <v>35.43911143336199</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>6970.287839949996</v>
       </c>
       <c r="D21" t="n">
-        <v>34.99494069062183</v>
+        <v>34.93552851657297</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>7085.878322499996</v>
       </c>
       <c r="D22" t="n">
-        <v>34.93844230911457</v>
+        <v>34.8789764052712</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>7203.895049899997</v>
       </c>
       <c r="D23" t="n">
-        <v>34.87692724126494</v>
+        <v>34.81785282357872</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>7398.520257249997</v>
       </c>
       <c r="D24" t="n">
-        <v>34.54037560545289</v>
+        <v>34.48197427083277</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>7597.034988449996</v>
       </c>
       <c r="D25" t="n">
-        <v>34.25993597742644</v>
+        <v>34.19257300483308</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>7662.417309999996</v>
       </c>
       <c r="D26" t="n">
-        <v>34.0476199523649</v>
+        <v>33.99179320826721</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>7717.949312349996</v>
       </c>
       <c r="D27" t="n">
-        <v>33.68479348955618</v>
+        <v>33.62300373225356</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>7772.332123199996</v>
       </c>
       <c r="D28" t="n">
-        <v>33.05314102103841</v>
+        <v>33.00052304687443</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>7797.218913449996</v>
       </c>
       <c r="D29" t="n">
-        <v>32.79660717205189</v>
+        <v>32.74711628326817</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>7832.233515299996</v>
       </c>
       <c r="D30" t="n">
-        <v>32.08416103005922</v>
+        <v>32.03541024556608</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>7847.376476799996</v>
       </c>
       <c r="D31" t="n">
-        <v>31.8078964891337</v>
+        <v>31.75916013849672</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>7856.210361399995</v>
       </c>
       <c r="D32" t="n">
-        <v>31.12791164316041</v>
+        <v>31.08097357789934</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>7874.934681449995</v>
       </c>
       <c r="D33" t="n">
-        <v>31.03337533303109</v>
+        <v>30.98468846924899</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>7909.767836749995</v>
       </c>
       <c r="D34" t="n">
-        <v>30.89060798297224</v>
+        <v>30.83693351023159</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>7974.042088299995</v>
       </c>
       <c r="D35" t="n">
-        <v>29.56410282393481</v>
+        <v>29.51550536600337</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/mean_all_info_cooling.xlsx
+++ b/visualizations/mean_all_info_cooling.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
         <v>0.0002024</v>
       </c>
       <c r="D2" t="n">
-        <v>46.1460446071759</v>
+        <v>46.0074965313677</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>366.4076825499989</v>
       </c>
       <c r="D3" t="n">
-        <v>44.70092230282822</v>
+        <v>44.5322357653866</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1249.966295799999</v>
       </c>
       <c r="D4" t="n">
-        <v>43.60562404167081</v>
+        <v>43.44445938317524</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>2540.6646351</v>
       </c>
       <c r="D5" t="n">
-        <v>40.69548639989222</v>
+        <v>40.57248183767017</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>3636.840305</v>
       </c>
       <c r="D6" t="n">
-        <v>40.63331878544989</v>
+        <v>40.53078085361968</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>4148.669423749998</v>
       </c>
       <c r="D7" t="n">
-        <v>40.43371205890781</v>
+        <v>40.33192974300647</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>4369.508489899998</v>
       </c>
       <c r="D8" t="n">
-        <v>40.21739900729455</v>
+        <v>40.08114387934383</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>4464.082322199998</v>
       </c>
       <c r="D9" t="n">
-        <v>39.99621706789318</v>
+        <v>39.85754908048202</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>5187.544489299998</v>
       </c>
       <c r="D10" t="n">
-        <v>39.95645154108993</v>
+        <v>39.85620407934094</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>5864.449493149997</v>
       </c>
       <c r="D11" t="n">
-        <v>37.97338399293842</v>
+        <v>37.86091178188186</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>5917.630158449996</v>
       </c>
       <c r="D12" t="n">
-        <v>37.54280781855731</v>
+        <v>37.43878583908879</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>6009.652053349995</v>
       </c>
       <c r="D13" t="n">
-        <v>37.44656394901162</v>
+        <v>37.34091261816778</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>6125.256429899996</v>
       </c>
       <c r="D14" t="n">
-        <v>37.3077558354606</v>
+        <v>37.20219281217282</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>6247.607748199996</v>
       </c>
       <c r="D15" t="n">
-        <v>37.21437915524302</v>
+        <v>37.1089004766912</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>6373.062619549996</v>
       </c>
       <c r="D16" t="n">
-        <v>37.15542844304534</v>
+        <v>37.05045655655396</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>6499.089056049996</v>
       </c>
       <c r="D17" t="n">
-        <v>37.11934614254483</v>
+        <v>37.01472711123708</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>6708.740035149995</v>
       </c>
       <c r="D18" t="n">
-        <v>36.66309863629139</v>
+        <v>36.55949948532365</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>6859.681874299996</v>
       </c>
       <c r="D19" t="n">
-        <v>36.49575625453265</v>
+        <v>36.40557825649507</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>6889.258942249996</v>
       </c>
       <c r="D20" t="n">
-        <v>36.34877447108163</v>
+        <v>36.24846208893855</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>6970.287839949996</v>
       </c>
       <c r="D21" t="n">
-        <v>35.72856299714325</v>
+        <v>35.64330094662763</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>7085.878322499996</v>
       </c>
       <c r="D22" t="n">
-        <v>35.67272658981995</v>
+        <v>35.58738743200223</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>7203.895049899997</v>
       </c>
       <c r="D23" t="n">
-        <v>35.60669524639388</v>
+        <v>35.52191790798508</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>7398.520257249997</v>
       </c>
       <c r="D24" t="n">
-        <v>35.26169066012488</v>
+        <v>35.17787925914056</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>7597.034988449996</v>
       </c>
       <c r="D25" t="n">
-        <v>35.07117462007433</v>
+        <v>34.97450581804349</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>7662.417309999996</v>
       </c>
       <c r="D26" t="n">
-        <v>34.74001405997119</v>
+        <v>34.6598974382252</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>7717.949312349996</v>
       </c>
       <c r="D27" t="n">
-        <v>34.43613184920294</v>
+        <v>34.34746085405134</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>7772.332123199996</v>
       </c>
       <c r="D28" t="n">
-        <v>33.70858496901165</v>
+        <v>33.63307323352948</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>7797.218913449996</v>
       </c>
       <c r="D29" t="n">
-        <v>33.42002481967047</v>
+        <v>33.34900074544506</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>7832.233515299996</v>
       </c>
       <c r="D30" t="n">
-        <v>32.69548881453462</v>
+        <v>32.6255268594863</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>7847.376476799996</v>
       </c>
       <c r="D31" t="n">
-        <v>32.4188959062482</v>
+        <v>32.3489546651393</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>7856.210361399995</v>
       </c>
       <c r="D32" t="n">
-        <v>31.71881797656262</v>
+        <v>31.65145744388621</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>7874.934681449995</v>
       </c>
       <c r="D33" t="n">
-        <v>31.6429610745684</v>
+        <v>31.57309085174467</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>7909.767836749995</v>
       </c>
       <c r="D34" t="n">
-        <v>31.55231839269859</v>
+        <v>31.47529318463957</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>7974.042088299995</v>
       </c>
       <c r="D35" t="n">
-        <v>30.16848098526717</v>
+        <v>30.0987390682373</v>
       </c>
     </row>
   </sheetData>
